--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.16528027653171</v>
+        <v>22.614608</v>
       </c>
       <c r="H2">
-        <v>3.16528027653171</v>
+        <v>67.843824</v>
       </c>
       <c r="I2">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J2">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.620433531929524</v>
+        <v>0.7376096666666667</v>
       </c>
       <c r="N2">
-        <v>0.620433531929524</v>
+        <v>2.212829</v>
       </c>
       <c r="O2">
-        <v>0.09652575612495672</v>
+        <v>0.1014284037978316</v>
       </c>
       <c r="P2">
-        <v>0.09652575612495672</v>
+        <v>0.1014284037978316</v>
       </c>
       <c r="Q2">
-        <v>1.963846021515429</v>
+        <v>16.68075346867733</v>
       </c>
       <c r="R2">
-        <v>1.963846021515429</v>
+        <v>150.126781218096</v>
       </c>
       <c r="S2">
-        <v>0.007713588129474673</v>
+        <v>0.03702327964760136</v>
       </c>
       <c r="T2">
-        <v>0.007713588129474673</v>
+        <v>0.03702327964760135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.16528027653171</v>
+        <v>22.614608</v>
       </c>
       <c r="H3">
-        <v>3.16528027653171</v>
+        <v>67.843824</v>
       </c>
       <c r="I3">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J3">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.8072139358235</v>
+        <v>0.6291593333333333</v>
       </c>
       <c r="N3">
-        <v>5.8072139358235</v>
+        <v>1.887478</v>
       </c>
       <c r="O3">
-        <v>0.9034742438750433</v>
+        <v>0.08651544278546762</v>
       </c>
       <c r="P3">
-        <v>0.9034742438750433</v>
+        <v>0.08651544278546762</v>
       </c>
       <c r="Q3">
-        <v>18.38145973266221</v>
+        <v>14.22819169287467</v>
       </c>
       <c r="R3">
-        <v>18.38145973266221</v>
+        <v>128.053725235872</v>
       </c>
       <c r="S3">
-        <v>0.07219863881531199</v>
+        <v>0.0315797677193743</v>
       </c>
       <c r="T3">
-        <v>0.07219863881531199</v>
+        <v>0.03157976771937429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4824647447077</v>
+        <v>22.614608</v>
       </c>
       <c r="H4">
-        <v>11.4824647447077</v>
+        <v>67.843824</v>
       </c>
       <c r="I4">
-        <v>0.2898919679776424</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J4">
-        <v>0.2898919679776424</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.620433531929524</v>
+        <v>0.07810833333333334</v>
       </c>
       <c r="N4">
-        <v>0.620433531929524</v>
+        <v>0.234325</v>
       </c>
       <c r="O4">
-        <v>0.09652575612495672</v>
+        <v>0.01074064499332162</v>
       </c>
       <c r="P4">
-        <v>0.09652575612495672</v>
+        <v>0.01074064499332162</v>
       </c>
       <c r="Q4">
-        <v>7.124106156815238</v>
+        <v>1.766389339866667</v>
       </c>
       <c r="R4">
-        <v>7.124106156815238</v>
+        <v>15.8975040588</v>
       </c>
       <c r="S4">
-        <v>0.02798204140359368</v>
+        <v>0.003920537919298865</v>
       </c>
       <c r="T4">
-        <v>0.02798204140359368</v>
+        <v>0.003920537919298864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4824647447077</v>
+        <v>22.614608</v>
       </c>
       <c r="H5">
-        <v>11.4824647447077</v>
+        <v>67.843824</v>
       </c>
       <c r="I5">
-        <v>0.2898919679776424</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J5">
-        <v>0.2898919679776424</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.8072139358235</v>
+        <v>5.827342666666667</v>
       </c>
       <c r="N5">
-        <v>5.8072139358235</v>
+        <v>17.482028</v>
       </c>
       <c r="O5">
-        <v>0.9034742438750433</v>
+        <v>0.8013155084233792</v>
       </c>
       <c r="P5">
-        <v>0.9034742438750433</v>
+        <v>0.8013155084233792</v>
       </c>
       <c r="Q5">
-        <v>66.68112928306859</v>
+        <v>131.7830700883413</v>
       </c>
       <c r="R5">
-        <v>66.68112928306859</v>
+        <v>1186.047630795072</v>
       </c>
       <c r="S5">
-        <v>0.2619099265740488</v>
+        <v>0.2924952680262221</v>
       </c>
       <c r="T5">
-        <v>0.2619099265740488</v>
+        <v>0.2924952680262221</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.977574006734</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H6">
-        <v>17.977574006734</v>
+        <v>37.145801</v>
       </c>
       <c r="I6">
-        <v>0.4538706997274126</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J6">
-        <v>0.4538706997274126</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.620433531929524</v>
+        <v>0.7376096666666667</v>
       </c>
       <c r="N6">
-        <v>0.620433531929524</v>
+        <v>2.212829</v>
       </c>
       <c r="O6">
-        <v>0.09652575612495672</v>
+        <v>0.1014284037978316</v>
       </c>
       <c r="P6">
-        <v>0.09652575612495672</v>
+        <v>0.1014284037978316</v>
       </c>
       <c r="Q6">
-        <v>11.15388973652238</v>
+        <v>9.133033964558779</v>
       </c>
       <c r="R6">
-        <v>11.15388973652238</v>
+        <v>82.19730568102901</v>
       </c>
       <c r="S6">
-        <v>0.04381021247415168</v>
+        <v>0.02027095905085112</v>
       </c>
       <c r="T6">
-        <v>0.04381021247415168</v>
+        <v>0.02027095905085112</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.977574006734</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H7">
-        <v>17.977574006734</v>
+        <v>37.145801</v>
       </c>
       <c r="I7">
-        <v>0.4538706997274126</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J7">
-        <v>0.4538706997274126</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.8072139358235</v>
+        <v>0.6291593333333333</v>
       </c>
       <c r="N7">
-        <v>5.8072139358235</v>
+        <v>1.887478</v>
       </c>
       <c r="O7">
-        <v>0.9034742438750433</v>
+        <v>0.08651544278546762</v>
       </c>
       <c r="P7">
-        <v>0.9034742438750433</v>
+        <v>0.08651544278546762</v>
       </c>
       <c r="Q7">
-        <v>104.399618304204</v>
+        <v>7.790209131097555</v>
       </c>
       <c r="R7">
-        <v>104.399618304204</v>
+        <v>70.11188217987799</v>
       </c>
       <c r="S7">
-        <v>0.4100604872532609</v>
+        <v>0.01729053137290878</v>
       </c>
       <c r="T7">
-        <v>0.4100604872532609</v>
+        <v>0.01729053137290878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.98414247181285</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H8">
-        <v>6.98414247181285</v>
+        <v>37.145801</v>
       </c>
       <c r="I8">
-        <v>0.1763251053501582</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J8">
-        <v>0.1763251053501582</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.620433531929524</v>
+        <v>0.07810833333333334</v>
       </c>
       <c r="N8">
-        <v>0.620433531929524</v>
+        <v>0.234325</v>
       </c>
       <c r="O8">
-        <v>0.09652575612495672</v>
+        <v>0.01074064499332162</v>
       </c>
       <c r="P8">
-        <v>0.09652575612495672</v>
+        <v>0.01074064499332162</v>
       </c>
       <c r="Q8">
-        <v>4.333196181285842</v>
+        <v>0.9671322021472223</v>
       </c>
       <c r="R8">
-        <v>4.333196181285842</v>
+        <v>8.704189819325</v>
       </c>
       <c r="S8">
-        <v>0.01701991411773668</v>
+        <v>0.002146570060131482</v>
       </c>
       <c r="T8">
-        <v>0.01701991411773668</v>
+        <v>0.002146570060131482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.98414247181285</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H9">
-        <v>6.98414247181285</v>
+        <v>37.145801</v>
       </c>
       <c r="I9">
-        <v>0.1763251053501582</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J9">
-        <v>0.1763251053501582</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.8072139358235</v>
+        <v>5.827342666666667</v>
       </c>
       <c r="N9">
-        <v>5.8072139358235</v>
+        <v>17.482028</v>
       </c>
       <c r="O9">
-        <v>0.9034742438750433</v>
+        <v>0.8013155084233792</v>
       </c>
       <c r="P9">
-        <v>0.9034742438750433</v>
+        <v>0.8013155084233792</v>
       </c>
       <c r="Q9">
-        <v>40.55840949208837</v>
+        <v>72.15377035160311</v>
       </c>
       <c r="R9">
-        <v>40.55840949208837</v>
+        <v>649.383933164428</v>
       </c>
       <c r="S9">
-        <v>0.1593051912324216</v>
+        <v>0.1601467956691785</v>
       </c>
       <c r="T9">
-        <v>0.1593051912324216</v>
+        <v>0.1601467956691785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>19.82277733333333</v>
+      </c>
+      <c r="H10">
+        <v>59.468332</v>
+      </c>
+      <c r="I10">
+        <v>0.3199563508543806</v>
+      </c>
+      <c r="J10">
+        <v>0.3199563508543806</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7376096666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.212829</v>
+      </c>
+      <c r="O10">
+        <v>0.1014284037978316</v>
+      </c>
+      <c r="P10">
+        <v>0.1014284037978316</v>
+      </c>
+      <c r="Q10">
+        <v>14.62147218124755</v>
+      </c>
+      <c r="R10">
+        <v>131.593249631228</v>
+      </c>
+      <c r="S10">
+        <v>0.03245266195213879</v>
+      </c>
+      <c r="T10">
+        <v>0.03245266195213879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>19.82277733333333</v>
+      </c>
+      <c r="H11">
+        <v>59.468332</v>
+      </c>
+      <c r="I11">
+        <v>0.3199563508543806</v>
+      </c>
+      <c r="J11">
+        <v>0.3199563508543806</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6291593333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.887478</v>
+      </c>
+      <c r="O11">
+        <v>0.08651544278546762</v>
+      </c>
+      <c r="P11">
+        <v>0.08651544278546762</v>
+      </c>
+      <c r="Q11">
+        <v>12.47168537185511</v>
+      </c>
+      <c r="R11">
+        <v>112.245168346696</v>
+      </c>
+      <c r="S11">
+        <v>0.02768116536618917</v>
+      </c>
+      <c r="T11">
+        <v>0.02768116536618917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>19.82277733333333</v>
+      </c>
+      <c r="H12">
+        <v>59.468332</v>
+      </c>
+      <c r="I12">
+        <v>0.3199563508543806</v>
+      </c>
+      <c r="J12">
+        <v>0.3199563508543806</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07810833333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.234325</v>
+      </c>
+      <c r="O12">
+        <v>0.01074064499332162</v>
+      </c>
+      <c r="P12">
+        <v>0.01074064499332162</v>
+      </c>
+      <c r="Q12">
+        <v>1.548324099544444</v>
+      </c>
+      <c r="R12">
+        <v>13.9349168959</v>
+      </c>
+      <c r="S12">
+        <v>0.003436537577885558</v>
+      </c>
+      <c r="T12">
+        <v>0.003436537577885558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19.82277733333333</v>
+      </c>
+      <c r="H13">
+        <v>59.468332</v>
+      </c>
+      <c r="I13">
+        <v>0.3199563508543806</v>
+      </c>
+      <c r="J13">
+        <v>0.3199563508543806</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.827342666666667</v>
+      </c>
+      <c r="N13">
+        <v>17.482028</v>
+      </c>
+      <c r="O13">
+        <v>0.8013155084233792</v>
+      </c>
+      <c r="P13">
+        <v>0.8013155084233792</v>
+      </c>
+      <c r="Q13">
+        <v>115.5141161263662</v>
+      </c>
+      <c r="R13">
+        <v>1039.627045137296</v>
+      </c>
+      <c r="S13">
+        <v>0.256385985958167</v>
+      </c>
+      <c r="T13">
+        <v>0.256385985958167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.135311000000001</v>
+      </c>
+      <c r="H14">
+        <v>21.405933</v>
+      </c>
+      <c r="I14">
+        <v>0.115169939680053</v>
+      </c>
+      <c r="J14">
+        <v>0.115169939680053</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.7376096666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.212829</v>
+      </c>
+      <c r="O14">
+        <v>0.1014284037978316</v>
+      </c>
+      <c r="P14">
+        <v>0.1014284037978316</v>
+      </c>
+      <c r="Q14">
+        <v>5.263074368273001</v>
+      </c>
+      <c r="R14">
+        <v>47.367669314457</v>
+      </c>
+      <c r="S14">
+        <v>0.01168150314724032</v>
+      </c>
+      <c r="T14">
+        <v>0.01168150314724032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.135311000000001</v>
+      </c>
+      <c r="H15">
+        <v>21.405933</v>
+      </c>
+      <c r="I15">
+        <v>0.115169939680053</v>
+      </c>
+      <c r="J15">
+        <v>0.115169939680053</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6291593333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.887478</v>
+      </c>
+      <c r="O15">
+        <v>0.08651544278546762</v>
+      </c>
+      <c r="P15">
+        <v>0.08651544278546762</v>
+      </c>
+      <c r="Q15">
+        <v>4.489247511886</v>
+      </c>
+      <c r="R15">
+        <v>40.403227606974</v>
+      </c>
+      <c r="S15">
+        <v>0.00996397832699538</v>
+      </c>
+      <c r="T15">
+        <v>0.00996397832699538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.135311000000001</v>
+      </c>
+      <c r="H16">
+        <v>21.405933</v>
+      </c>
+      <c r="I16">
+        <v>0.115169939680053</v>
+      </c>
+      <c r="J16">
+        <v>0.115169939680053</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07810833333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.234325</v>
+      </c>
+      <c r="O16">
+        <v>0.01074064499332162</v>
+      </c>
+      <c r="P16">
+        <v>0.01074064499332162</v>
+      </c>
+      <c r="Q16">
+        <v>0.5573272500250001</v>
+      </c>
+      <c r="R16">
+        <v>5.015945250225</v>
+      </c>
+      <c r="S16">
+        <v>0.001236999436005714</v>
+      </c>
+      <c r="T16">
+        <v>0.001236999436005714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.135311000000001</v>
+      </c>
+      <c r="H17">
+        <v>21.405933</v>
+      </c>
+      <c r="I17">
+        <v>0.115169939680053</v>
+      </c>
+      <c r="J17">
+        <v>0.115169939680053</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.827342666666667</v>
+      </c>
+      <c r="N17">
+        <v>17.482028</v>
+      </c>
+      <c r="O17">
+        <v>0.8013155084233792</v>
+      </c>
+      <c r="P17">
+        <v>0.8013155084233792</v>
+      </c>
+      <c r="Q17">
+        <v>41.579902230236</v>
+      </c>
+      <c r="R17">
+        <v>374.219120072124</v>
+      </c>
+      <c r="S17">
+        <v>0.09228745876981156</v>
+      </c>
+      <c r="T17">
+        <v>0.09228745876981156</v>
       </c>
     </row>
   </sheetData>
